--- a/DateBase/orders/Dang Nguyen_2025-9-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1274,10 +1274,228 @@
       <c r="C100" t="str">
         <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
       </c>
+      <c r="F100" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F101" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>13</v>
+      </c>
+      <c r="C102" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F104" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F106" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F107" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>14</v>
+      </c>
+      <c r="C108" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F108" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F109" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>78_玉镜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F110" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F111" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F112" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F113" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>85_摩洛哥_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F114" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F115" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F116" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>15</v>
+      </c>
+      <c r="C117" t="str">
+        <v>547_粉菠萝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F117" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>453_国产菠萝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F118" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F119" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F120" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F121" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>16</v>
+      </c>
+      <c r="C122" t="str">
+        <v>136_爱慕_adore_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F122" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F123" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>598_梦幻芭蕉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F124" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>17</v>
+      </c>
+      <c r="C125" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F125" t="str">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L125"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1335,7 +1553,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101515151520202020202020101010101010101010105201010101010610101055105151515151010101010105510615851010101010101010105101015510101015151010201010106101010559111075551088610110</v>
+        <v>010151515152020202020202010101010101010101010520101010101061010105510515151515101010101010551061585101010101010101010510101551010101515101020101010610101055911107555108861011105151020105101010105510510101055105520535</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-2.xlsx
@@ -1555,6 +1555,9 @@
       <c r="G2" t="str">
         <v>010151515152020202020202010101010101010101010520101010101061010105510515151515101010101010551061585101010101010101010510101551010101515101020101010610101055911107555108861011105151020105101010105510510101055105520535</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
